--- a/Registro_proyecto_estadias_y_Reporte_asesorias2022.xlsx
+++ b/Registro_proyecto_estadias_y_Reporte_asesorias2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Miguel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prac.sistemas\Documents\Mike\Documentacion-Estadia\Documentos-Estadias\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{066ECC0B-42A3-484F-A405-1574462F1F29}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488189CF-65AD-4AF9-8CBF-A1B032B8A8C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9330" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Registro proyecto de estadias" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Fecha de Inicio:</t>
   </si>
@@ -192,18 +192,12 @@
     <t>José Miguel Delgado Pérez</t>
   </si>
   <si>
-    <t>2021 - 2023</t>
-  </si>
-  <si>
     <t>20213TN055</t>
   </si>
   <si>
     <t>Técnico Superior Universitario</t>
   </si>
   <si>
-    <t>6B</t>
-  </si>
-  <si>
     <t>Tecnologías de la información</t>
   </si>
   <si>
@@ -220,6 +214,43 @@
   </si>
   <si>
     <t xml:space="preserve">Wurth México S.A de C.V </t>
+  </si>
+  <si>
+    <t>Revisión capitulo 1</t>
+  </si>
+  <si>
+    <t>6°.B</t>
+  </si>
+  <si>
+    <t>38va.</t>
+  </si>
+  <si>
+    <t>Gestionar el proceso de control de inventario de equipos de cómputo, periféricos y software por medio de una aplicación web para el seguimiento de las asignaciones a los usuarios internos de la empresa.</t>
+  </si>
+  <si>
+    <t>A) Formato de asesorías.
+B) Entrega de avances del proyecto.</t>
+  </si>
+  <si>
+    <t>1. Inicio</t>
+  </si>
+  <si>
+    <t>2. Planeación</t>
+  </si>
+  <si>
+    <t>3. Ejecución</t>
+  </si>
+  <si>
+    <t>4. Control</t>
+  </si>
+  <si>
+    <t>5. Cierre</t>
+  </si>
+  <si>
+    <t>Análisis y clasificación del inventario: Realiza un inventario detallado de todos los equipos de cómputo, periféricos y software existentes en la empresa. Clasifica y categoriza los elementos para facilitar su gestión y seguimiento.</t>
+  </si>
+  <si>
+    <t>Diseñar e implementar una aplicación web segura que permita llevar un registro actualizado y detallado de todos los equipos de cómputo, periféricos y software disponibles en el inventario de la empresa.</t>
   </si>
 </sst>
 </file>
@@ -738,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -956,6 +987,139 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -964,6 +1128,50 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -981,18 +1189,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
@@ -1006,10 +1202,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1017,18 +1209,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1036,174 +1216,154 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1212,14 +1372,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1231,146 +1383,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2191,8 +2246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="115" zoomScaleNormal="90" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A8" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2216,50 +2271,50 @@
   <sheetData>
     <row r="1" spans="2:18" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="137" t="s">
+      <c r="B2" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="139"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="86"/>
       <c r="L2" s="13"/>
       <c r="M2" s="14"/>
     </row>
     <row r="3" spans="2:18" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="140" t="s">
+      <c r="B3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="141"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="89"/>
       <c r="L3" s="15"/>
       <c r="M3" s="36"/>
     </row>
     <row r="4" spans="2:18" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="143" t="s">
+      <c r="B4" s="90" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="145"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="16"/>
       <c r="M4" s="17"/>
     </row>
@@ -2268,81 +2323,81 @@
         <v>19</v>
       </c>
       <c r="C5" s="46"/>
-      <c r="D5" s="148" t="s">
+      <c r="D5" s="95" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="148"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="148"/>
-      <c r="J5" s="148"/>
-      <c r="K5" s="148"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="149"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+      <c r="L5" s="95"/>
+      <c r="M5" s="96"/>
     </row>
     <row r="6" spans="2:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B6" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="150" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="150"/>
-      <c r="E6" s="150"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="150"/>
-      <c r="H6" s="150"/>
-      <c r="I6" s="150"/>
+      <c r="C6" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="44" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="83"/>
     </row>
     <row r="7" spans="2:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="147"/>
+      <c r="C7" s="94"/>
       <c r="D7" s="81" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="81"/>
       <c r="F7" s="81"/>
       <c r="G7" s="81"/>
       <c r="H7" s="81"/>
       <c r="I7" s="81"/>
-      <c r="J7" s="147" t="s">
+      <c r="J7" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="147"/>
-      <c r="L7" s="150" t="s">
-        <v>47</v>
-      </c>
-      <c r="M7" s="151"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" s="98"/>
     </row>
     <row r="8" spans="2:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B8" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="109" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
+      <c r="C8" s="117" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
       <c r="J8" s="42" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L8" s="81"/>
       <c r="M8" s="82"/>
@@ -2352,18 +2407,18 @@
         <v>21</v>
       </c>
       <c r="C9" s="38"/>
-      <c r="D9" s="122" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="123"/>
+      <c r="D9" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="99"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="100"/>
     </row>
     <row r="10" spans="2:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B10" s="37" t="s">
@@ -2371,17 +2426,17 @@
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
-      <c r="E10" s="109" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="109"/>
-      <c r="I10" s="109"/>
-      <c r="J10" s="109"/>
-      <c r="K10" s="109"/>
-      <c r="L10" s="109"/>
-      <c r="M10" s="136"/>
+      <c r="E10" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="118"/>
     </row>
     <row r="11" spans="2:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B11" s="37" t="s">
@@ -2389,35 +2444,39 @@
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
-      <c r="E11" s="122" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="122"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="123"/>
+      <c r="E11" s="99" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="100"/>
     </row>
     <row r="12" spans="2:18" s="4" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="130"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="120">
+        <v>45086</v>
+      </c>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
       <c r="G12" s="40" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="41"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="132"/>
+      <c r="I12" s="112">
+        <v>45156</v>
+      </c>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="113"/>
     </row>
     <row r="13" spans="2:18" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
@@ -2443,20 +2502,22 @@
       <c r="R13" s="6"/>
     </row>
     <row r="14" spans="2:18" s="4" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="126" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
-      <c r="M14" s="120"/>
+      <c r="B14" s="107" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="119" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
+      <c r="L14" s="200"/>
+      <c r="M14" s="201"/>
       <c r="N14" s="5"/>
       <c r="O14" s="6"/>
       <c r="P14" s="5"/>
@@ -2471,13 +2532,13 @@
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="26"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="119"/>
-      <c r="K15" s="119"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="120"/>
+      <c r="G15" s="104"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="105"/>
+      <c r="K15" s="105"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="106"/>
       <c r="N15" s="5"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -2485,18 +2546,20 @@
       <c r="R15" s="6"/>
     </row>
     <row r="16" spans="2:18" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="124"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="120"/>
+      <c r="B16" s="202" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="104"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="105"/>
+      <c r="K16" s="105"/>
+      <c r="L16" s="105"/>
+      <c r="M16" s="106"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -2504,18 +2567,18 @@
       <c r="R16" s="6"/>
     </row>
     <row r="17" spans="2:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="124"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="125"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="119"/>
-      <c r="K17" s="119"/>
-      <c r="L17" s="119"/>
-      <c r="M17" s="120"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="203"/>
+      <c r="G17" s="104"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="105"/>
+      <c r="K17" s="105"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="106"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -2523,39 +2586,39 @@
       <c r="R17" s="6"/>
     </row>
     <row r="18" spans="2:18" s="4" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="124"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="119"/>
-      <c r="K18" s="119"/>
-      <c r="L18" s="119"/>
-      <c r="M18" s="120"/>
+      <c r="B18" s="202"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="105"/>
+      <c r="K18" s="105"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="106"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
     </row>
-    <row r="19" spans="2:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="133" t="s">
+    <row r="19" spans="2:18" s="4" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="204"/>
+      <c r="C19" s="205"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="114" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="135"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="116"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -2588,11 +2651,13 @@
       <c r="R20" s="6"/>
     </row>
     <row r="21" spans="2:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="124"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="125"/>
+      <c r="B21" s="101" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -2609,18 +2674,18 @@
       <c r="R21" s="6"/>
     </row>
     <row r="22" spans="2:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="124"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="125"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="114"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="117"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="133"/>
       <c r="N22" s="6"/>
       <c r="O22" s="8"/>
       <c r="P22" s="6"/>
@@ -2628,18 +2693,20 @@
       <c r="R22" s="6"/>
     </row>
     <row r="23" spans="2:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="106"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="85"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="123" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="124"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="122"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -2647,18 +2714,20 @@
       <c r="R23" s="6"/>
     </row>
     <row r="24" spans="2:18" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="106"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="92"/>
-      <c r="J24" s="92"/>
-      <c r="K24" s="93"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="85"/>
+      <c r="B24" s="107"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="126" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" s="127"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="128"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="122"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -2673,13 +2742,15 @@
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="93"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="85"/>
+      <c r="G25" s="126" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="127"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="128"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="122"/>
       <c r="N25" s="6"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2687,18 +2758,22 @@
       <c r="R25" s="6"/>
     </row>
     <row r="26" spans="2:18" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="106"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="108"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="92"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="93"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="85"/>
+      <c r="B26" s="209" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="127"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="128"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="122"/>
       <c r="N26" s="6"/>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -2706,18 +2781,20 @@
       <c r="R26" s="6"/>
     </row>
     <row r="27" spans="2:18" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="106"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="108"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="93"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="85"/>
+      <c r="B27" s="209"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="127"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="122"/>
       <c r="N27" s="6"/>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -2725,18 +2802,18 @@
       <c r="R27" s="6"/>
     </row>
     <row r="28" spans="2:18" s="4" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="106"/>
-      <c r="C28" s="107"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="108"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="92"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="85"/>
+      <c r="B28" s="209"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="128"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="122"/>
       <c r="N28" s="6"/>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -2744,18 +2821,18 @@
       <c r="R28" s="6"/>
     </row>
     <row r="29" spans="2:18" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="106"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="92"/>
-      <c r="J29" s="92"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="85"/>
+      <c r="B29" s="209"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="128"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="122"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
       <c r="P29" s="9"/>
@@ -2763,18 +2840,18 @@
       <c r="R29" s="9"/>
     </row>
     <row r="30" spans="2:18" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="101"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="94"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="87"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="207"/>
+      <c r="D30" s="207"/>
+      <c r="E30" s="207"/>
+      <c r="F30" s="208"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="140"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="134"/>
+      <c r="M30" s="135"/>
       <c r="N30" s="6"/>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -2795,61 +2872,61 @@
       <c r="L31" s="6"/>
     </row>
     <row r="32" spans="2:18" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="104"/>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="104"/>
+      <c r="B32" s="145"/>
+      <c r="C32" s="145"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="145"/>
       <c r="F32" s="10"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="98"/>
-      <c r="L32" s="98"/>
-      <c r="M32" s="98"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="142"/>
+      <c r="L32" s="142"/>
+      <c r="M32" s="142"/>
     </row>
     <row r="33" spans="2:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="88" t="str">
+      <c r="B33" s="136" t="str">
         <f>E10</f>
         <v>Ing. Alejandro Bahena Bravo</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
       <c r="F33" s="43"/>
-      <c r="G33" s="105" t="str">
+      <c r="G33" s="146" t="str">
         <f>D5</f>
         <v>José Miguel Delgado Pérez</v>
       </c>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="88" t="str">
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="136" t="str">
         <f>E11</f>
         <v>Drc. Virna Viridiana Vela Rincón</v>
       </c>
-      <c r="L33" s="88"/>
-      <c r="M33" s="88"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
     </row>
     <row r="34" spans="2:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="99" t="s">
+      <c r="B34" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
       <c r="F34" s="35"/>
-      <c r="G34" s="90" t="s">
+      <c r="G34" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="89" t="s">
+      <c r="H34" s="138"/>
+      <c r="I34" s="138"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="L34" s="89"/>
-      <c r="M34" s="89"/>
+      <c r="L34" s="137"/>
+      <c r="M34" s="137"/>
     </row>
     <row r="35" spans="2:13" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="3"/>
@@ -2978,35 +3055,21 @@
       <c r="B52" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D5:M5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="D9:M9"/>
-    <mergeCell ref="B21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="G14:M14"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B16:F19"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G15:M15"/>
-    <mergeCell ref="G16:M16"/>
-    <mergeCell ref="G18:M18"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="G19:M19"/>
-    <mergeCell ref="E10:M10"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B27:F27"/>
+  <mergeCells count="52">
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G29:K29"/>
+    <mergeCell ref="G30:K30"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="B26:F30"/>
     <mergeCell ref="C8:I8"/>
     <mergeCell ref="L27:M27"/>
     <mergeCell ref="L28:M28"/>
@@ -3023,21 +3086,28 @@
     <mergeCell ref="G22:K22"/>
     <mergeCell ref="L22:M22"/>
     <mergeCell ref="G17:M17"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G29:K29"/>
-    <mergeCell ref="G30:K30"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="B34:E34"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B21:F24"/>
+    <mergeCell ref="D9:M9"/>
+    <mergeCell ref="G14:M14"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="B16:F19"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G15:M15"/>
+    <mergeCell ref="G16:M16"/>
+    <mergeCell ref="G18:M18"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="G19:M19"/>
+    <mergeCell ref="E10:M10"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="C6:I6"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="J7:K7"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions verticalCentered="1"/>
@@ -3052,8 +3122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:M34"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3076,50 +3146,50 @@
   <sheetData>
     <row r="1" spans="2:13" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="149" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="193"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="151"/>
       <c r="L2" s="48"/>
       <c r="M2" s="49"/>
     </row>
     <row r="3" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="196"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="154"/>
       <c r="L3" s="50"/>
       <c r="M3" s="51"/>
     </row>
     <row r="4" spans="2:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="197" t="s">
+      <c r="B4" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="199"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="157"/>
       <c r="L4" s="52"/>
       <c r="M4" s="53"/>
     </row>
@@ -3129,69 +3199,69 @@
         <v xml:space="preserve">Nombre del estudiante: </v>
       </c>
       <c r="C5" s="55"/>
-      <c r="D5" s="200" t="str">
+      <c r="D5" s="158" t="str">
         <f>'Registro proyecto de estadias'!D5:M5</f>
         <v>José Miguel Delgado Pérez</v>
       </c>
-      <c r="E5" s="200"/>
-      <c r="F5" s="200"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="200"/>
-      <c r="K5" s="200"/>
-      <c r="L5" s="200"/>
-      <c r="M5" s="201"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="158"/>
+      <c r="I5" s="158"/>
+      <c r="J5" s="158"/>
+      <c r="K5" s="158"/>
+      <c r="L5" s="158"/>
+      <c r="M5" s="159"/>
     </row>
     <row r="6" spans="2:13" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="54" t="str">
         <f>'Registro proyecto de estadias'!B6</f>
         <v>Generación:</v>
       </c>
-      <c r="C6" s="189" t="str">
+      <c r="C6" s="147" t="str">
         <f>'Registro proyecto de estadias'!C6:I6</f>
-        <v>2021 - 2023</v>
-      </c>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="189"/>
-      <c r="G6" s="189"/>
-      <c r="H6" s="189"/>
-      <c r="I6" s="189"/>
-      <c r="J6" s="202" t="str">
+        <v>38va.</v>
+      </c>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="160" t="str">
         <f>'[1]Asignación de Proyecto'!J6</f>
         <v xml:space="preserve">      Matrícula:</v>
       </c>
-      <c r="K6" s="202"/>
-      <c r="L6" s="203" t="str">
+      <c r="K6" s="160"/>
+      <c r="L6" s="161" t="str">
         <f>'Registro proyecto de estadias'!K6</f>
         <v>20213TN055</v>
       </c>
-      <c r="M6" s="204"/>
+      <c r="M6" s="162"/>
     </row>
     <row r="7" spans="2:13" s="56" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="54" t="str">
         <f>'Registro proyecto de estadias'!B7</f>
         <v xml:space="preserve">Nivel académico: </v>
       </c>
-      <c r="C7" s="189" t="str">
+      <c r="C7" s="147" t="str">
         <f>'Registro proyecto de estadias'!D7</f>
         <v>Técnico Superior Universitario</v>
       </c>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="189"/>
-      <c r="H7" s="189"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="202" t="str">
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="160" t="str">
         <f>'[1]Asignación de Proyecto'!J7:K7</f>
         <v xml:space="preserve">Grado y Grupo: </v>
       </c>
-      <c r="K7" s="202"/>
+      <c r="K7" s="160"/>
       <c r="L7" s="57" t="str">
         <f>'Registro proyecto de estadias'!L7:M7</f>
-        <v>6B</v>
+        <v>6°.B</v>
       </c>
       <c r="M7" s="58"/>
     </row>
@@ -3200,26 +3270,26 @@
         <f>'Registro proyecto de estadias'!B8</f>
         <v xml:space="preserve">Carrera: </v>
       </c>
-      <c r="C8" s="189" t="str">
+      <c r="C8" s="147" t="str">
         <f xml:space="preserve"> 'Registro proyecto de estadias'!C8:I8</f>
         <v>Tecnologías de la información</v>
       </c>
-      <c r="D8" s="189"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="189"/>
-      <c r="H8" s="189"/>
-      <c r="I8" s="189"/>
-      <c r="J8" s="189"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
       <c r="K8" s="59" t="str">
         <f>'[1]Asignación de Proyecto'!J8</f>
         <v xml:space="preserve">     Área:</v>
       </c>
-      <c r="L8" s="189" t="str">
+      <c r="L8" s="147" t="str">
         <f>'Registro proyecto de estadias'!K8</f>
         <v>Desarrollo de Software Multiplataforma</v>
       </c>
-      <c r="M8" s="190"/>
+      <c r="M8" s="148"/>
     </row>
     <row r="9" spans="2:13" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="54" t="str">
@@ -3227,19 +3297,19 @@
         <v>Empresa o Institución:</v>
       </c>
       <c r="C9" s="61"/>
-      <c r="D9" s="174" t="str">
+      <c r="D9" s="163" t="str">
         <f>'Registro proyecto de estadias'!D9:M9</f>
         <v xml:space="preserve">Wurth México S.A de C.V </v>
       </c>
-      <c r="E9" s="174"/>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="174"/>
-      <c r="I9" s="174"/>
-      <c r="J9" s="174"/>
-      <c r="K9" s="174"/>
-      <c r="L9" s="174"/>
-      <c r="M9" s="175"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="163"/>
+      <c r="H9" s="163"/>
+      <c r="I9" s="163"/>
+      <c r="J9" s="163"/>
+      <c r="K9" s="163"/>
+      <c r="L9" s="163"/>
+      <c r="M9" s="164"/>
     </row>
     <row r="10" spans="2:13" s="56" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="54" t="str">
@@ -3248,18 +3318,17 @@
       </c>
       <c r="C10" s="62"/>
       <c r="D10" s="62"/>
-      <c r="E10" s="189">
-        <f>'Registro proyecto de estadias'!D10</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
-      <c r="M10" s="190"/>
+      <c r="E10" s="147" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="148"/>
     </row>
     <row r="11" spans="2:13" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="60" t="str">
@@ -3268,122 +3337,126 @@
       </c>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
-      <c r="E11" s="174" t="str">
+      <c r="E11" s="163" t="str">
         <f>'Registro proyecto de estadias'!E11:M11</f>
         <v>Drc. Virna Viridiana Vela Rincón</v>
       </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="174"/>
-      <c r="I11" s="174"/>
-      <c r="J11" s="174"/>
-      <c r="K11" s="174"/>
-      <c r="L11" s="174"/>
-      <c r="M11" s="175"/>
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="163"/>
+      <c r="K11" s="163"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="164"/>
     </row>
     <row r="12" spans="2:13" s="56" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="180" t="str">
+      <c r="C12" s="173"/>
+      <c r="D12" s="176" t="str">
         <f>'Registro proyecto de estadias'!B14</f>
         <v>Sistema de Control de Inventario</v>
       </c>
-      <c r="E12" s="180"/>
-      <c r="F12" s="180"/>
-      <c r="G12" s="180"/>
-      <c r="H12" s="180"/>
-      <c r="I12" s="180"/>
-      <c r="J12" s="180"/>
-      <c r="K12" s="180"/>
-      <c r="L12" s="180"/>
-      <c r="M12" s="181"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="176"/>
+      <c r="M12" s="177"/>
     </row>
     <row r="13" spans="2:13" s="56" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="178"/>
-      <c r="C13" s="179"/>
-      <c r="D13" s="182"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="182"/>
-      <c r="G13" s="182"/>
-      <c r="H13" s="182"/>
-      <c r="I13" s="182"/>
-      <c r="J13" s="182"/>
-      <c r="K13" s="182"/>
-      <c r="L13" s="182"/>
-      <c r="M13" s="183"/>
+      <c r="B13" s="174"/>
+      <c r="C13" s="175"/>
+      <c r="D13" s="178"/>
+      <c r="E13" s="178"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="178"/>
+      <c r="H13" s="178"/>
+      <c r="I13" s="178"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="178"/>
+      <c r="L13" s="178"/>
+      <c r="M13" s="179"/>
     </row>
     <row r="14" spans="2:13" s="56" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="184" t="s">
+      <c r="B14" s="180" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="185"/>
-      <c r="D14" s="186">
+      <c r="C14" s="181"/>
+      <c r="D14" s="182">
         <f>'Registro proyecto de estadias'!D12:F12</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
+        <v>45086</v>
+      </c>
+      <c r="E14" s="182"/>
+      <c r="F14" s="182"/>
+      <c r="G14" s="182"/>
       <c r="H14" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="187">
+      <c r="I14" s="183">
         <f>'Registro proyecto de estadias'!I12:M12</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="188"/>
+        <v>45156</v>
+      </c>
+      <c r="J14" s="183"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="183"/>
+      <c r="M14" s="184"/>
     </row>
     <row r="15" spans="2:13" s="56" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="159" t="s">
+      <c r="B15" s="187" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="161" t="s">
+      <c r="C15" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="167" t="s">
+      <c r="D15" s="190"/>
+      <c r="E15" s="190"/>
+      <c r="F15" s="191"/>
+      <c r="G15" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="168"/>
-      <c r="I15" s="161" t="s">
+      <c r="H15" s="166"/>
+      <c r="I15" s="189" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="162"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="167" t="s">
+      <c r="J15" s="190"/>
+      <c r="K15" s="191"/>
+      <c r="L15" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="168"/>
+      <c r="M15" s="166"/>
     </row>
     <row r="16" spans="2:13" s="56" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="160"/>
-      <c r="C16" s="164"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="165"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="169"/>
-      <c r="M16" s="170"/>
+      <c r="B16" s="188"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="168"/>
     </row>
     <row r="17" spans="2:13" s="56" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="64"/>
-      <c r="C17" s="171"/>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="171"/>
-      <c r="H17" s="173"/>
+      <c r="B17" s="64">
+        <v>45084</v>
+      </c>
+      <c r="C17" s="169" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="171"/>
       <c r="I17" s="65"/>
       <c r="J17" s="66"/>
       <c r="K17" s="67"/>
@@ -3396,8 +3469,8 @@
       <c r="D18" s="71"/>
       <c r="E18" s="71"/>
       <c r="F18" s="72"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="155"/>
+      <c r="G18" s="185"/>
+      <c r="H18" s="186"/>
       <c r="I18" s="70"/>
       <c r="J18" s="71"/>
       <c r="K18" s="72"/>
@@ -3410,8 +3483,8 @@
       <c r="D19" s="71"/>
       <c r="E19" s="71"/>
       <c r="F19" s="72"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="155"/>
+      <c r="G19" s="185"/>
+      <c r="H19" s="186"/>
       <c r="I19" s="70"/>
       <c r="J19" s="71"/>
       <c r="K19" s="72"/>
@@ -3424,8 +3497,8 @@
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
       <c r="F20" s="72"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="155"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="186"/>
       <c r="I20" s="70"/>
       <c r="J20" s="71"/>
       <c r="K20" s="72"/>
@@ -3438,8 +3511,8 @@
       <c r="D21" s="71"/>
       <c r="E21" s="71"/>
       <c r="F21" s="72"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="155"/>
+      <c r="G21" s="185"/>
+      <c r="H21" s="186"/>
       <c r="I21" s="70"/>
       <c r="J21" s="71"/>
       <c r="K21" s="72"/>
@@ -3452,8 +3525,8 @@
       <c r="D22" s="71"/>
       <c r="E22" s="71"/>
       <c r="F22" s="72"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="155"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="186"/>
       <c r="I22" s="70"/>
       <c r="J22" s="71"/>
       <c r="K22" s="72"/>
@@ -3466,8 +3539,8 @@
       <c r="D23" s="71"/>
       <c r="E23" s="71"/>
       <c r="F23" s="72"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="155"/>
+      <c r="G23" s="185"/>
+      <c r="H23" s="186"/>
       <c r="I23" s="70"/>
       <c r="J23" s="71"/>
       <c r="K23" s="72"/>
@@ -3480,8 +3553,8 @@
       <c r="D24" s="71"/>
       <c r="E24" s="71"/>
       <c r="F24" s="72"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="155"/>
+      <c r="G24" s="185"/>
+      <c r="H24" s="186"/>
       <c r="I24" s="70"/>
       <c r="J24" s="71"/>
       <c r="K24" s="72"/>
@@ -3494,8 +3567,8 @@
       <c r="D25" s="71"/>
       <c r="E25" s="71"/>
       <c r="F25" s="72"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="155"/>
+      <c r="G25" s="185"/>
+      <c r="H25" s="186"/>
       <c r="I25" s="70"/>
       <c r="J25" s="71"/>
       <c r="K25" s="72"/>
@@ -3508,8 +3581,8 @@
       <c r="D26" s="71"/>
       <c r="E26" s="71"/>
       <c r="F26" s="72"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="155"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="186"/>
       <c r="I26" s="70"/>
       <c r="J26" s="71"/>
       <c r="K26" s="72"/>
@@ -3522,8 +3595,8 @@
       <c r="D27" s="71"/>
       <c r="E27" s="71"/>
       <c r="F27" s="72"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="155"/>
+      <c r="G27" s="185"/>
+      <c r="H27" s="186"/>
       <c r="I27" s="70"/>
       <c r="J27" s="71"/>
       <c r="K27" s="72"/>
@@ -3536,8 +3609,8 @@
       <c r="D28" s="76"/>
       <c r="E28" s="76"/>
       <c r="F28" s="77"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="157"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="198"/>
       <c r="I28" s="75"/>
       <c r="J28" s="76"/>
       <c r="K28" s="77"/>
@@ -3581,36 +3654,64 @@
       <c r="M30" s="79"/>
     </row>
     <row r="31" spans="2:13" s="56" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="158" t="str">
+      <c r="C31" s="199" t="str">
         <f>'Registro proyecto de estadias'!K33</f>
         <v>Drc. Virna Viridiana Vela Rincón</v>
       </c>
-      <c r="D31" s="158"/>
-      <c r="E31" s="158"/>
-      <c r="F31" s="158"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="152"/>
-      <c r="K31" s="152"/>
-      <c r="L31" s="152"/>
+      <c r="D31" s="199"/>
+      <c r="E31" s="199"/>
+      <c r="F31" s="199"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="195"/>
+      <c r="K31" s="195"/>
+      <c r="L31" s="195"/>
     </row>
     <row r="32" spans="2:13" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="C32" s="153" t="s">
+      <c r="C32" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="153"/>
-      <c r="E32" s="153"/>
-      <c r="F32" s="153"/>
-      <c r="I32" s="153" t="s">
+      <c r="D32" s="196"/>
+      <c r="E32" s="196"/>
+      <c r="F32" s="196"/>
+      <c r="I32" s="196" t="s">
         <v>40</v>
       </c>
-      <c r="J32" s="153"/>
-      <c r="K32" s="153"/>
-      <c r="L32" s="153"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="196"/>
     </row>
     <row r="33" ht="51.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:F16"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:K16"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="L15:M16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="E11:M11"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="I14:M14"/>
     <mergeCell ref="E10:M10"/>
     <mergeCell ref="B2:K2"/>
     <mergeCell ref="B3:K3"/>
@@ -3624,34 +3725,6 @@
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="D9:M9"/>
-    <mergeCell ref="L15:M16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="E11:M11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:F16"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:K16"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="C31:F31"/>
   </mergeCells>
   <printOptions verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
